--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69671.56824480229</v>
+        <v>-72372.78489625937</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,70 +656,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>59.8012719186829</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.98946990210336</v>
-      </c>
-      <c r="H2" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.10851687400128</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>49.60335845484342</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -786,7 +786,7 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>104.9062666645655</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>75.02623601535676</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.4075712450431</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>110.622323338401</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154308</v>
+        <v>383.6877278154311</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.89470222000292</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713863</v>
+        <v>4.360182258713849</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
@@ -1029,7 +1029,7 @@
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>143.5293110515773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.4739678040361</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.23415734687816</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643578</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059547</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>42.1432962435687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>180.2158708563821</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>49.57372789032991</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>209.1096297769326</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>239.3009742386684</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240.1044458298911</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.508928064093</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.8020451840544</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>32.4418101585724</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417132</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.974274198337</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>176.1811323375836</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174125</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>103.1686991936191</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>20.88994825141701</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.40444476188316</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179031</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703267</v>
+        <v>20.88994825141594</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.3852063573441</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.4214638411528</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="C2" t="n">
-        <v>840.4214638411528</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4214638411528</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739748</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F2" t="n">
-        <v>307.6661507067968</v>
+        <v>94.46624834395173</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>81.50243557050727</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,19 +4328,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411528</v>
+        <v>634.1670622275112</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>366.6704805141266</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>366.6704805141266</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>217.7360708528753</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
         <v>167.6316683732355</v>
@@ -4407,25 +4407,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>782.2822794846134</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X3" t="n">
-        <v>574.4307792790805</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y3" t="n">
-        <v>366.6704805141266</v>
+        <v>398.4938728567103</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.666471045117</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
         <v>21.0971104001205</v>
@@ -4489,19 +4489,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>820.0970659169042</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>820.0970659169042</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="U4" t="n">
-        <v>820.0970659169042</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="V4" t="n">
-        <v>820.0970659169042</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W4" t="n">
-        <v>820.0970659169042</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X4" t="n">
-        <v>592.1075150188868</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.3149358753568</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.7674266983988</v>
+        <v>50.18495430551869</v>
       </c>
       <c r="C5" t="n">
-        <v>540.7674266983988</v>
+        <v>50.18495430551869</v>
       </c>
       <c r="D5" t="n">
-        <v>540.7674266983988</v>
+        <v>50.18495430551869</v>
       </c>
       <c r="E5" t="n">
-        <v>154.9791741001546</v>
+        <v>50.18495430551869</v>
       </c>
       <c r="F5" t="n">
-        <v>43.2394535563152</v>
+        <v>43.23945355631522</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275135</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
         <v>239.0325989245559</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825627</v>
+        <v>456.1499114825631</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748854</v>
+        <v>729.4041931748858</v>
       </c>
       <c r="N5" t="n">
         <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798412</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189409</v>
+        <v>1446.53548218941</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261723</v>
+        <v>1389.996673518252</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261723</v>
+        <v>1177.398442107327</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398241</v>
+        <v>923.7469742438452</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398241</v>
+        <v>923.7469742438452</v>
       </c>
       <c r="W5" t="n">
-        <v>928.3307881281269</v>
+        <v>923.7469742438452</v>
       </c>
       <c r="X5" t="n">
-        <v>928.3307881281269</v>
+        <v>550.2812159827654</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.7674266983988</v>
+        <v>162.717854553037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.85128309392428</v>
+        <v>179.6294278864858</v>
       </c>
       <c r="C6" t="n">
-        <v>56.85128309392428</v>
+        <v>179.6294278864858</v>
       </c>
       <c r="D6" t="n">
-        <v>56.85128309392428</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="E6" t="n">
-        <v>56.85128309392428</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="F6" t="n">
-        <v>56.85128309392428</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="G6" t="n">
-        <v>56.85128309392428</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="H6" t="n">
-        <v>56.85128309392428</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034125</v>
+        <v>49.4420610756342</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516516</v>
+        <v>159.6385680169446</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830035</v>
+        <v>539.4894185542214</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537492</v>
+        <v>785.8131792249673</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259714</v>
+        <v>1053.06504179719</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.31796589149</v>
+        <v>1275.328488962708</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090178</v>
+        <v>1434.381434161396</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757972</v>
+        <v>1530.346686757973</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152067</v>
+        <v>1385.878273152068</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.973630703751</v>
+        <v>1189.973630703752</v>
       </c>
       <c r="U6" t="n">
-        <v>961.8525470243553</v>
+        <v>1189.973630703752</v>
       </c>
       <c r="V6" t="n">
-        <v>726.7004387926127</v>
+        <v>954.8215224720095</v>
       </c>
       <c r="W6" t="n">
-        <v>472.463082064411</v>
+        <v>700.5841657438079</v>
       </c>
       <c r="X6" t="n">
-        <v>264.6115818588782</v>
+        <v>555.6050636715077</v>
       </c>
       <c r="Y6" t="n">
-        <v>56.85128309392428</v>
+        <v>347.8447649065538</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.6733562312436</v>
+        <v>349.7478405654771</v>
       </c>
       <c r="C7" t="n">
-        <v>655.6733562312436</v>
+        <v>180.8116576375702</v>
       </c>
       <c r="D7" t="n">
-        <v>505.5567168189078</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="E7" t="n">
-        <v>505.5567168189078</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="F7" t="n">
-        <v>470.9767599028693</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="G7" t="n">
-        <v>302.595517540933</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274378</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709666</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830388</v>
+        <v>375.1387655830389</v>
       </c>
       <c r="M7" t="n">
         <v>615.0688576388152</v>
@@ -4747,28 +4747,28 @@
         <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402741</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371304</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="T7" t="n">
-        <v>910.3578444371304</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="U7" t="n">
-        <v>910.3578444371304</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="V7" t="n">
-        <v>655.6733562312436</v>
+        <v>776.0074023236863</v>
       </c>
       <c r="W7" t="n">
-        <v>655.6733562312436</v>
+        <v>486.5902322867257</v>
       </c>
       <c r="X7" t="n">
-        <v>655.6733562312436</v>
+        <v>486.5902322867257</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.6733562312436</v>
+        <v>486.5902322867257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1593.528088680778</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="C8" t="n">
-        <v>1224.565571740366</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>1041.721523379427</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>655.9332707811825</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>648.987770031979</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>233.2830197562679</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1980.1279287449</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.024971736461</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>518.0887888085541</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1425.224271814969</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1425.224271814969</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>1425.224271814969</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>1135.807101778008</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>907.8175508799911</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>687.024971736461</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133568</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1116.527812193156</v>
+        <v>1503.127652257282</v>
       </c>
       <c r="D11" t="n">
-        <v>758.2621135864056</v>
+        <v>1144.861953650531</v>
       </c>
       <c r="E11" t="n">
-        <v>516.5439577897708</v>
+        <v>759.0737010522867</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897708</v>
+        <v>759.0737010522865</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>344.4579364934319</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926738</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048266</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704695</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434581</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173501</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.09016919769</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592064</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504605</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929972</v>
+        <v>612.5381326449929</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749525</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1656.304008302731</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.8915125252785</v>
+        <v>184.112340728136</v>
       </c>
       <c r="C13" t="n">
-        <v>689.9553295973716</v>
+        <v>184.1123407281359</v>
       </c>
       <c r="D13" t="n">
-        <v>539.8386901850358</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026427</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047324</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648138</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344801</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742806</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177246</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177246</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.787147971359</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.369977934399</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.380427036381</v>
+        <v>586.5533847019058</v>
       </c>
       <c r="Y13" t="n">
-        <v>1040.539977355518</v>
+        <v>365.7608055583756</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6105350483883</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>665.4938956360526</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>517.5808020536595</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5446,7 +5446,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806535</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998274</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038379</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2269.002343845331</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868272</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362697</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5771,19 +5771,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,7 +5932,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142538</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>323.8164599824513</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597623</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270438</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,16 +6634,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,13 +6859,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,13 +6950,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7078,28 +7078,28 @@
         <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121644</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400713</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121644</v>
+        <v>526.5658826424039</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121644</v>
+        <v>376.4492432300682</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121644</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637014</v>
+        <v>34.43939438637011</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000714</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>187.2277845514392</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>44.41009271441746</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>142.6293958335934</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>49.8730575094837</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.1065449541194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.7826081680404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.9792378643589</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393184</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.845153664060945</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-4.807348427598704e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>62.35543909864971</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667953</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038569</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864968</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194265</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194214</v>
+        <v>144.6341900408529</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.04875628922505</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194221</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>999364.5271756438</v>
+        <v>999364.5271756443</v>
       </c>
     </row>
     <row r="6">
@@ -26314,22 +26314,22 @@
         <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097582</v>
+        <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
@@ -26338,19 +26338,19 @@
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="N2" t="n">
-        <v>322858.6398760022</v>
-      </c>
       <c r="O2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26366,19 +26366,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657067</v>
+        <v>132804.2190657069</v>
       </c>
       <c r="D3" t="n">
         <v>265413.0723929378</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545763</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704302</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641742</v>
+        <v>30877.42926417419</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049572</v>
+        <v>65018.34502049568</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273055</v>
+        <v>81897.40371273075</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202394</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664855</v>
+        <v>215494.7982664854</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26430,22 +26430,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179353</v>
       </c>
-      <c r="J4" t="n">
-        <v>11167.03225179356</v>
-      </c>
       <c r="K4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,10 +26454,10 @@
         <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667494</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-665946.4414687658</v>
       </c>
       <c r="C6" t="n">
-        <v>-92475.95977315377</v>
+        <v>-92475.95977315397</v>
       </c>
       <c r="D6" t="n">
-        <v>-170272.8207245297</v>
+        <v>-170272.8207245298</v>
       </c>
       <c r="E6" t="n">
-        <v>-116740.5584043507</v>
+        <v>-116961.689718326</v>
       </c>
       <c r="F6" t="n">
-        <v>21260.80902987174</v>
+        <v>21226.07110443708</v>
       </c>
       <c r="G6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="H6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="I6" t="n">
-        <v>210569.0778003019</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="J6" t="n">
-        <v>141569.9233811877</v>
+        <v>141535.185455752</v>
       </c>
       <c r="K6" t="n">
-        <v>179691.6485361275</v>
+        <v>179656.9106106918</v>
       </c>
       <c r="L6" t="n">
-        <v>145550.7327798061</v>
+        <v>145515.9948543704</v>
       </c>
       <c r="M6" t="n">
-        <v>128671.6740875711</v>
+        <v>128636.9361621354</v>
       </c>
       <c r="N6" t="n">
-        <v>160729.5036682776</v>
+        <v>160694.7657428422</v>
       </c>
       <c r="O6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.339874866</v>
       </c>
       <c r="P6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.339874866</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695746</v>
+        <v>717.3319511695747</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154308</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.220823949008</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000962</v>
+        <v>103.2769374000964</v>
       </c>
       <c r="D3" t="n">
         <v>216.7329409479645</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974104</v>
+        <v>268.1763450974112</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267245</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139249</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284608</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.9738478139249</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284608</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139249</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284608</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>392.8447047436067</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>254.3923607105851</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.42466677586606</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>108.0417220005575</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>99.81289757902827</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>177.1114073084713</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>271.3262704184374</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>296.2537224033105</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863695</v>
+        <v>99.30025118863692</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.55021084062281</v>
+        <v>2.550210840622526</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>10.37876254951441</v>
+        <v>36.27346476951732</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>62.24367415190019</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>44.35801237790125</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>111.1868906760531</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643564</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>312.5397453771143</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>120.8026817060232</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>51.98384452924373</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11.63906622027937</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28618,10 +28618,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="V17" t="n">
-        <v>-3.913659393165391e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.581135388230905e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31279,22 +31279,22 @@
         <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579056</v>
+        <v>29.53316922579057</v>
       </c>
       <c r="I5" t="n">
         <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756933</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023589</v>
+        <v>366.823373602359</v>
       </c>
       <c r="L5" t="n">
         <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791138</v>
+        <v>506.3606591791139</v>
       </c>
       <c r="N5" t="n">
         <v>514.5541040284025</v>
@@ -31312,7 +31312,7 @@
         <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020778</v>
+        <v>65.7133742202078</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731583</v>
@@ -31358,28 +31358,28 @@
         <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189775</v>
+        <v>53.12316808189776</v>
       </c>
       <c r="J6" t="n">
         <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453796</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043866</v>
+        <v>335.0143230438661</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874181</v>
+        <v>390.9459133874182</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189114</v>
+        <v>401.2930884189115</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348671</v>
+        <v>367.1047769348672</v>
       </c>
       <c r="P6" t="n">
         <v>294.6339480190655</v>
@@ -31388,16 +31388,16 @@
         <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392927</v>
+        <v>95.79765189392928</v>
       </c>
       <c r="S6" t="n">
         <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989046</v>
+        <v>6.219132670989047</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31443,7 +31443,7 @@
         <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040292</v>
+        <v>91.45394400402921</v>
       </c>
       <c r="K7" t="n">
         <v>150.2869235401174</v>
@@ -31452,7 +31452,7 @@
         <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773274</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
         <v>197.9483399022534</v>
@@ -31461,22 +31461,22 @@
         <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
         <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565106</v>
+        <v>58.16268574565107</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
         <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864675</v>
+        <v>0.07055724109864676</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583241</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>489.9737736272083</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900694</v>
+        <v>63.70847814900699</v>
       </c>
       <c r="K5" t="n">
         <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252596</v>
+        <v>219.3104167252597</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518411</v>
+        <v>276.0144259518412</v>
       </c>
       <c r="N5" t="n">
         <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757913</v>
+        <v>255.7806379757914</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001007</v>
+        <v>183.4533610010071</v>
       </c>
       <c r="Q5" t="n">
         <v>89.10649401243856</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960281</v>
+        <v>18.93640691959567</v>
       </c>
       <c r="K6" t="n">
         <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639918</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="M6" t="n">
         <v>248.8118794653998</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>269.9513763355782</v>
       </c>
       <c r="O6" t="n">
         <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047353</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237833</v>
+        <v>101.3833102023517</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
         <v>219.9055454148608</v>
@@ -35109,10 +35109,10 @@
         <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491138</v>
+        <v>22.15508137491139</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483965057</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>347.3775291827639</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096386</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37242,7 +37242,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
